--- a/xl files/amc by aum jul 2023.xlsx
+++ b/xl files/amc by aum jul 2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\python\StockTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\python\StockTracker\xl files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="119">
   <si>
     <t>https://www.icicipruamc.com/downloads/others/monthly-portfolio-disclosures</t>
   </si>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:C33"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1114,7 @@
   <dimension ref="B2:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,6 +1152,12 @@
       <c r="C4" s="3">
         <v>552053.05000000005</v>
       </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1468,6 +1474,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xl files/amc by aum jul 2023.xlsx
+++ b/xl files/amc by aum jul 2023.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="119">
   <si>
     <t>https://www.icicipruamc.com/downloads/others/monthly-portfolio-disclosures</t>
   </si>
@@ -736,7 +736,7 @@
   <dimension ref="B3:C42"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1114,7 @@
   <dimension ref="B2:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,6 +1166,12 @@
       <c r="C5" s="3">
         <v>479862.12</v>
       </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1475,6 +1481,7 @@
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>
     <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xl files/amc by aum jul 2023.xlsx
+++ b/xl files/amc by aum jul 2023.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
   <si>
     <t>https://www.icicipruamc.com/downloads/others/monthly-portfolio-disclosures</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>WhiteOak Capital Asset Management Limited</t>
+  </si>
+  <si>
+    <t>nippon</t>
   </si>
 </sst>
 </file>
@@ -736,7 +739,7 @@
   <dimension ref="B3:C42"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,98 +760,98 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
@@ -1063,21 +1066,25 @@
       <c r="C42" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:C41"/>
+  <autoFilter ref="B3:C41">
+    <sortState ref="B4:C41">
+      <sortCondition ref="B3:B41"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="C16" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6"/>
-    <hyperlink ref="C9" r:id="rId7"/>
-    <hyperlink ref="C10" r:id="rId8"/>
-    <hyperlink ref="C11" r:id="rId9" location="t2"/>
-    <hyperlink ref="C12" r:id="rId10"/>
-    <hyperlink ref="C13" r:id="rId11"/>
-    <hyperlink ref="C14" r:id="rId12"/>
-    <hyperlink ref="C15" r:id="rId13" location="&amp;accordion1446811090=2"/>
+    <hyperlink ref="C14" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId3"/>
+    <hyperlink ref="C15" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="C5" r:id="rId6"/>
+    <hyperlink ref="C6" r:id="rId7"/>
+    <hyperlink ref="C7" r:id="rId8"/>
+    <hyperlink ref="C8" r:id="rId9" location="t2"/>
+    <hyperlink ref="C9" r:id="rId10"/>
+    <hyperlink ref="C10" r:id="rId11"/>
+    <hyperlink ref="C11" r:id="rId12"/>
+    <hyperlink ref="C13" r:id="rId13" location="&amp;accordion1446811090=2"/>
     <hyperlink ref="C17" r:id="rId14"/>
     <hyperlink ref="C18" r:id="rId15"/>
     <hyperlink ref="C19" r:id="rId16"/>
@@ -1114,7 +1121,7 @@
   <dimension ref="B2:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,6 +1187,12 @@
       <c r="C6" s="3">
         <v>315808.06</v>
       </c>
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -1187,6 +1200,9 @@
       </c>
       <c r="C7" s="3">
         <v>306903.55</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -1482,6 +1498,8 @@
     <hyperlink ref="E3" r:id="rId1"/>
     <hyperlink ref="E4" r:id="rId2"/>
     <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
